--- a/Design Input File_V25-00-SUMMER - CONFIG4 (version 1).xlsx
+++ b/Design Input File_V25-00-SUMMER - CONFIG4 (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itzgr\OneDrive\Documents\MATLAB\ASEN 2804\Student Version Summer 25\Student Version Summer 25\Design Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natei\Documents\MATLAB\Summer 2025\ASEN 2804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD037AA-42C9-4731-B817-FF9AE3DEAA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1765771-5FE7-4DE7-9E70-3B76B4116687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Geometry Reference" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3640,15 +3639,15 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="16.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1">
@@ -3696,7 +3695,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="28.75" customHeight="1">
+    <row r="4" spans="1:5" ht="28.8" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +3785,7 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="28.75" customHeight="1">
+    <row r="10" spans="1:5" ht="28.8" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3815,7 @@
       </c>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="28.75" customHeight="1">
+    <row r="12" spans="1:5" ht="28.8" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
@@ -3846,7 +3845,7 @@
       </c>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="28.75" customHeight="1">
+    <row r="14" spans="1:5" ht="28.8" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3860,7 @@
       </c>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5" ht="28.75" customHeight="1">
+    <row r="15" spans="1:5" ht="28.8" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
@@ -3981,7 +3980,7 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" ht="28.75" customHeight="1">
+    <row r="23" spans="1:5" ht="28.8" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>0</v>
       </c>
@@ -4011,7 +4010,7 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="28.75" customHeight="1">
+    <row r="25" spans="1:5" ht="28.8" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4040,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="28.75" customHeight="1">
+    <row r="27" spans="1:5" ht="28.8" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>0</v>
       </c>
@@ -4086,7 +4085,7 @@
       </c>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" ht="28.75" customHeight="1">
+    <row r="30" spans="1:5" ht="28.8" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>0</v>
       </c>
@@ -4101,7 +4100,7 @@
       </c>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="28.75" customHeight="1">
+    <row r="31" spans="1:5" ht="28.8" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>0</v>
       </c>
@@ -4131,7 +4130,7 @@
       </c>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="28.75" customHeight="1">
+    <row r="33" spans="1:5" ht="28.8" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>0</v>
       </c>
@@ -4161,7 +4160,7 @@
       </c>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" ht="28.75" customHeight="1">
+    <row r="35" spans="1:5" ht="28.8" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4205,7 @@
       </c>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="1:5" ht="28.75" customHeight="1">
+    <row r="38" spans="1:5" ht="28.8" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4220,7 @@
       </c>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="1:5" ht="28.75" customHeight="1">
+    <row r="39" spans="1:5" ht="28.8" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>0</v>
       </c>
@@ -4251,7 +4250,7 @@
       </c>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:5" ht="28.75" customHeight="1">
+    <row r="41" spans="1:5" ht="28.8" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>0</v>
       </c>
@@ -4281,7 +4280,7 @@
       </c>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" ht="28.75" customHeight="1">
+    <row r="43" spans="1:5" ht="28.8" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +4385,7 @@
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" ht="28.75" customHeight="1">
+    <row r="50" spans="1:5" ht="28.8" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4760,7 @@
       </c>
       <c r="E74" s="13"/>
     </row>
-    <row r="75" spans="1:5" ht="28.75" customHeight="1">
+    <row r="75" spans="1:5" ht="28.8" customHeight="1">
       <c r="A75" s="14" t="s">
         <v>2</v>
       </c>
@@ -4806,7 +4805,7 @@
       </c>
       <c r="E77" s="13"/>
     </row>
-    <row r="78" spans="1:5" ht="28.75" customHeight="1">
+    <row r="78" spans="1:5" ht="28.8" customHeight="1">
       <c r="A78" s="14" t="s">
         <v>2</v>
       </c>
@@ -4851,7 +4850,7 @@
       </c>
       <c r="E80" s="13"/>
     </row>
-    <row r="81" spans="1:5" ht="28.75" customHeight="1">
+    <row r="81" spans="1:5" ht="28.8" customHeight="1">
       <c r="A81" s="14" t="s">
         <v>2</v>
       </c>
@@ -5003,31 +5002,31 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="8.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" style="1" customWidth="1"/>
+    <col min="3" max="11" width="8.796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.81640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1796875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6328125" style="1" customWidth="1"/>
-    <col min="21" max="27" width="8.81640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6328125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="8.81640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.19921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.59765625" style="1" customWidth="1"/>
+    <col min="21" max="27" width="8.796875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.59765625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="8.796875" style="1" customWidth="1"/>
     <col min="31" max="31" width="12" style="1" customWidth="1"/>
-    <col min="32" max="35" width="8.81640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="16.6328125" style="1" customWidth="1"/>
-    <col min="37" max="44" width="8.81640625" style="1" customWidth="1"/>
-    <col min="45" max="46" width="9.81640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9.1796875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="9.81640625" style="1" customWidth="1"/>
-    <col min="49" max="51" width="8.81640625" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="8.81640625" style="1"/>
+    <col min="32" max="35" width="8.796875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="16.59765625" style="1" customWidth="1"/>
+    <col min="37" max="44" width="8.796875" style="1" customWidth="1"/>
+    <col min="45" max="46" width="9.796875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.19921875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="9.796875" style="1" customWidth="1"/>
+    <col min="49" max="51" width="8.796875" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="13.5" customHeight="1">
@@ -6088,20 +6087,20 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
-    <col min="3" max="42" width="8.81640625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.81640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.81640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.81640625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.1796875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="8.81640625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.1796875" style="1" customWidth="1"/>
-    <col min="49" max="49" width="11.81640625" style="1" customWidth="1"/>
-    <col min="50" max="52" width="8.81640625" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="1" customWidth="1"/>
+    <col min="3" max="42" width="8.796875" style="1" customWidth="1"/>
+    <col min="43" max="43" width="11.796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.796875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="9.796875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.19921875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="8.796875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.19921875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="11.796875" style="1" customWidth="1"/>
+    <col min="50" max="52" width="8.796875" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14" customHeight="1">
@@ -6259,7 +6258,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="14.5" customHeight="1">
+    <row r="2" spans="1:51" ht="14.55" customHeight="1">
       <c r="A2" s="34" t="s">
         <v>191</v>
       </c>
@@ -7169,20 +7168,20 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="8.81640625" style="1" customWidth="1"/>
+    <col min="1" max="6" width="8.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="18" width="8.81640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="10.1796875" style="1" customWidth="1"/>
-    <col min="21" max="22" width="8.81640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.81640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.81640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.81640625" style="1"/>
+    <col min="8" max="18" width="8.796875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10.19921875" style="1" customWidth="1"/>
+    <col min="21" max="22" width="8.796875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.46484375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.796875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.796875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" customHeight="1">
+    <row r="1" spans="1:24" ht="14.45" customHeight="1">
       <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="14.4" customHeight="1">
+    <row r="2" spans="1:24" ht="14.45" customHeight="1">
       <c r="A2" s="28" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">Component_Data!A2</f>
         <v>Config1</v>
@@ -7329,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.4" customHeight="1">
+    <row r="3" spans="1:24" ht="14.45" customHeight="1">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -7355,7 +7354,7 @@
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
     </row>
-    <row r="4" spans="1:24" ht="14.4" customHeight="1">
+    <row r="4" spans="1:24" ht="14.45" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -7381,7 +7380,7 @@
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
     </row>
-    <row r="5" spans="1:24" ht="14.4" customHeight="1">
+    <row r="5" spans="1:24" ht="14.45" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -7407,7 +7406,7 @@
       <c r="W5" s="28"/>
       <c r="X5" s="28"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" customHeight="1">
+    <row r="6" spans="1:24" ht="14.45" customHeight="1">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -7433,7 +7432,7 @@
       <c r="W6" s="28"/>
       <c r="X6" s="28"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" customHeight="1">
+    <row r="7" spans="1:24" ht="14.45" customHeight="1">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -7459,7 +7458,7 @@
       <c r="W7" s="28"/>
       <c r="X7" s="28"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" customHeight="1">
+    <row r="8" spans="1:24" ht="14.45" customHeight="1">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -7485,7 +7484,7 @@
       <c r="W8" s="28"/>
       <c r="X8" s="28"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" customHeight="1">
+    <row r="9" spans="1:24" ht="14.45" customHeight="1">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -7511,7 +7510,7 @@
       <c r="W9" s="28"/>
       <c r="X9" s="28"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" customHeight="1">
+    <row r="10" spans="1:24" ht="14.45" customHeight="1">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -7537,7 +7536,7 @@
       <c r="W10" s="28"/>
       <c r="X10" s="28"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" customHeight="1">
+    <row r="11" spans="1:24" ht="14.45" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -7563,7 +7562,7 @@
       <c r="W11" s="28"/>
       <c r="X11" s="28"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" customHeight="1">
+    <row r="12" spans="1:24" ht="14.45" customHeight="1">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -7589,7 +7588,7 @@
       <c r="W12" s="28"/>
       <c r="X12" s="28"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" customHeight="1">
+    <row r="13" spans="1:24" ht="14.45" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -7615,7 +7614,7 @@
       <c r="W13" s="28"/>
       <c r="X13" s="28"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" customHeight="1">
+    <row r="14" spans="1:24" ht="14.45" customHeight="1">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -7641,7 +7640,7 @@
       <c r="W14" s="28"/>
       <c r="X14" s="28"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" customHeight="1">
+    <row r="15" spans="1:24" ht="14.45" customHeight="1">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -7667,7 +7666,7 @@
       <c r="W15" s="28"/>
       <c r="X15" s="28"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" customHeight="1">
+    <row r="16" spans="1:24" ht="14.45" customHeight="1">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -7693,7 +7692,7 @@
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" customHeight="1">
+    <row r="17" spans="1:24" ht="14.45" customHeight="1">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -7719,7 +7718,7 @@
       <c r="W17" s="28"/>
       <c r="X17" s="28"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" customHeight="1">
+    <row r="18" spans="1:24" ht="14.45" customHeight="1">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -7745,7 +7744,7 @@
       <c r="W18" s="28"/>
       <c r="X18" s="28"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" customHeight="1">
+    <row r="19" spans="1:24" ht="14.45" customHeight="1">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
@@ -7771,7 +7770,7 @@
       <c r="W19" s="28"/>
       <c r="X19" s="28"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" customHeight="1">
+    <row r="20" spans="1:24" ht="14.45" customHeight="1">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -7797,7 +7796,7 @@
       <c r="W20" s="28"/>
       <c r="X20" s="28"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" customHeight="1">
+    <row r="21" spans="1:24" ht="14.45" customHeight="1">
       <c r="A21" s="49"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -7823,7 +7822,7 @@
       <c r="W21" s="50"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" customHeight="1">
+    <row r="22" spans="1:24" ht="14.45" customHeight="1">
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -7849,7 +7848,7 @@
       <c r="W22" s="52"/>
       <c r="X22" s="52"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" customHeight="1">
+    <row r="23" spans="1:24" ht="14.45" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -7875,7 +7874,7 @@
       <c r="W23" s="53"/>
       <c r="X23" s="53"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" customHeight="1">
+    <row r="24" spans="1:24" ht="14.45" customHeight="1">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -7901,7 +7900,7 @@
       <c r="W24" s="53"/>
       <c r="X24" s="53"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" customHeight="1">
+    <row r="25" spans="1:24" ht="14.45" customHeight="1">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -7927,7 +7926,7 @@
       <c r="W25" s="53"/>
       <c r="X25" s="53"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" customHeight="1">
+    <row r="26" spans="1:24" ht="14.45" customHeight="1">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -7953,7 +7952,7 @@
       <c r="W26" s="53"/>
       <c r="X26" s="53"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" customHeight="1">
+    <row r="27" spans="1:24" ht="14.45" customHeight="1">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -7979,7 +7978,7 @@
       <c r="W27" s="53"/>
       <c r="X27" s="53"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" customHeight="1">
+    <row r="28" spans="1:24" ht="14.45" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -8005,7 +8004,7 @@
       <c r="W28" s="53"/>
       <c r="X28" s="53"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" customHeight="1">
+    <row r="29" spans="1:24" ht="14.45" customHeight="1">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -8031,7 +8030,7 @@
       <c r="W29" s="53"/>
       <c r="X29" s="53"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" customHeight="1">
+    <row r="30" spans="1:24" ht="14.45" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -8057,7 +8056,7 @@
       <c r="W30" s="53"/>
       <c r="X30" s="53"/>
     </row>
-    <row r="31" spans="1:24" ht="14.4" customHeight="1">
+    <row r="31" spans="1:24" ht="14.45" customHeight="1">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -8083,7 +8082,7 @@
       <c r="W31" s="53"/>
       <c r="X31" s="53"/>
     </row>
-    <row r="32" spans="1:24" ht="14.4" customHeight="1">
+    <row r="32" spans="1:24" ht="14.45" customHeight="1">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -8109,7 +8108,7 @@
       <c r="W32" s="53"/>
       <c r="X32" s="53"/>
     </row>
-    <row r="33" spans="1:24" ht="14.4" customHeight="1">
+    <row r="33" spans="1:24" ht="14.45" customHeight="1">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -8135,7 +8134,7 @@
       <c r="W33" s="53"/>
       <c r="X33" s="53"/>
     </row>
-    <row r="34" spans="1:24" ht="14.4" customHeight="1">
+    <row r="34" spans="1:24" ht="14.45" customHeight="1">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -8161,7 +8160,7 @@
       <c r="W34" s="53"/>
       <c r="X34" s="53"/>
     </row>
-    <row r="35" spans="1:24" ht="14.4" customHeight="1">
+    <row r="35" spans="1:24" ht="14.45" customHeight="1">
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
@@ -8187,7 +8186,7 @@
       <c r="W35" s="53"/>
       <c r="X35" s="53"/>
     </row>
-    <row r="36" spans="1:24" ht="14.4" customHeight="1">
+    <row r="36" spans="1:24" ht="14.45" customHeight="1">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -8213,7 +8212,7 @@
       <c r="W36" s="53"/>
       <c r="X36" s="53"/>
     </row>
-    <row r="37" spans="1:24" ht="14.4" customHeight="1">
+    <row r="37" spans="1:24" ht="14.45" customHeight="1">
       <c r="A37" s="53"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -8239,7 +8238,7 @@
       <c r="W37" s="53"/>
       <c r="X37" s="53"/>
     </row>
-    <row r="38" spans="1:24" ht="14.4" customHeight="1">
+    <row r="38" spans="1:24" ht="14.45" customHeight="1">
       <c r="A38" s="53"/>
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
@@ -8265,7 +8264,7 @@
       <c r="W38" s="53"/>
       <c r="X38" s="53"/>
     </row>
-    <row r="39" spans="1:24" ht="14.4" customHeight="1">
+    <row r="39" spans="1:24" ht="14.45" customHeight="1">
       <c r="A39" s="53"/>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
@@ -8291,7 +8290,7 @@
       <c r="W39" s="53"/>
       <c r="X39" s="53"/>
     </row>
-    <row r="40" spans="1:24" ht="14.4" customHeight="1">
+    <row r="40" spans="1:24" ht="14.45" customHeight="1">
       <c r="A40" s="53"/>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -8317,7 +8316,7 @@
       <c r="W40" s="53"/>
       <c r="X40" s="53"/>
     </row>
-    <row r="41" spans="1:24" ht="14.4" customHeight="1">
+    <row r="41" spans="1:24" ht="14.45" customHeight="1">
       <c r="A41" s="53"/>
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
@@ -8343,7 +8342,7 @@
       <c r="W41" s="53"/>
       <c r="X41" s="53"/>
     </row>
-    <row r="42" spans="1:24" ht="14.4" customHeight="1">
+    <row r="42" spans="1:24" ht="14.45" customHeight="1">
       <c r="A42" s="53"/>
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
@@ -8369,7 +8368,7 @@
       <c r="W42" s="53"/>
       <c r="X42" s="53"/>
     </row>
-    <row r="43" spans="1:24" ht="14.4" customHeight="1">
+    <row r="43" spans="1:24" ht="14.45" customHeight="1">
       <c r="A43" s="53"/>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -8395,7 +8394,7 @@
       <c r="W43" s="53"/>
       <c r="X43" s="53"/>
     </row>
-    <row r="44" spans="1:24" ht="14.4" customHeight="1">
+    <row r="44" spans="1:24" ht="14.45" customHeight="1">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -8421,7 +8420,7 @@
       <c r="W44" s="53"/>
       <c r="X44" s="53"/>
     </row>
-    <row r="45" spans="1:24" ht="14.4" customHeight="1">
+    <row r="45" spans="1:24" ht="14.45" customHeight="1">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -8447,7 +8446,7 @@
       <c r="W45" s="53"/>
       <c r="X45" s="53"/>
     </row>
-    <row r="46" spans="1:24" ht="14.4" customHeight="1">
+    <row r="46" spans="1:24" ht="14.45" customHeight="1">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -8473,7 +8472,7 @@
       <c r="W46" s="53"/>
       <c r="X46" s="53"/>
     </row>
-    <row r="47" spans="1:24" ht="14.4" customHeight="1">
+    <row r="47" spans="1:24" ht="14.45" customHeight="1">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -8499,7 +8498,7 @@
       <c r="W47" s="53"/>
       <c r="X47" s="53"/>
     </row>
-    <row r="48" spans="1:24" ht="14.4" customHeight="1">
+    <row r="48" spans="1:24" ht="14.45" customHeight="1">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -8525,7 +8524,7 @@
       <c r="W48" s="53"/>
       <c r="X48" s="53"/>
     </row>
-    <row r="49" spans="1:24" ht="14.4" customHeight="1">
+    <row r="49" spans="1:24" ht="14.45" customHeight="1">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -8551,7 +8550,7 @@
       <c r="W49" s="53"/>
       <c r="X49" s="53"/>
     </row>
-    <row r="50" spans="1:24" ht="14.4" customHeight="1">
+    <row r="50" spans="1:24" ht="14.45" customHeight="1">
       <c r="A50" s="53"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -8577,7 +8576,7 @@
       <c r="W50" s="53"/>
       <c r="X50" s="53"/>
     </row>
-    <row r="51" spans="1:24" ht="14.4" customHeight="1">
+    <row r="51" spans="1:24" ht="14.45" customHeight="1">
       <c r="A51" s="53"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
@@ -8603,7 +8602,7 @@
       <c r="W51" s="53"/>
       <c r="X51" s="53"/>
     </row>
-    <row r="52" spans="1:24" ht="14.4" customHeight="1">
+    <row r="52" spans="1:24" ht="14.45" customHeight="1">
       <c r="A52" s="53"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -8629,7 +8628,7 @@
       <c r="W52" s="53"/>
       <c r="X52" s="53"/>
     </row>
-    <row r="53" spans="1:24" ht="14.4" customHeight="1">
+    <row r="53" spans="1:24" ht="14.45" customHeight="1">
       <c r="A53" s="53"/>
       <c r="B53" s="53"/>
       <c r="C53" s="53"/>
@@ -8655,7 +8654,7 @@
       <c r="W53" s="53"/>
       <c r="X53" s="53"/>
     </row>
-    <row r="54" spans="1:24" ht="14.4" customHeight="1">
+    <row r="54" spans="1:24" ht="14.45" customHeight="1">
       <c r="A54" s="53"/>
       <c r="B54" s="53"/>
       <c r="C54" s="53"/>
@@ -8681,7 +8680,7 @@
       <c r="W54" s="53"/>
       <c r="X54" s="53"/>
     </row>
-    <row r="55" spans="1:24" ht="14.4" customHeight="1">
+    <row r="55" spans="1:24" ht="14.45" customHeight="1">
       <c r="A55" s="53"/>
       <c r="B55" s="53"/>
       <c r="C55" s="53"/>
@@ -8707,7 +8706,7 @@
       <c r="W55" s="53"/>
       <c r="X55" s="53"/>
     </row>
-    <row r="56" spans="1:24" ht="14.4" customHeight="1">
+    <row r="56" spans="1:24" ht="14.45" customHeight="1">
       <c r="A56" s="53"/>
       <c r="B56" s="53"/>
       <c r="C56" s="53"/>
@@ -8750,16 +8749,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="14.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="13.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="14.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
@@ -8926,10 +8925,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="24" width="8.81640625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="24" width="8.796875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
@@ -9521,7 +9520,7 @@
       <c r="V19" s="53"/>
       <c r="W19" s="53"/>
     </row>
-    <row r="20" spans="1:23" ht="14.4" customHeight="1">
+    <row r="20" spans="1:23" ht="14.45" customHeight="1">
       <c r="A20" s="63"/>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
@@ -9546,7 +9545,7 @@
       <c r="V20" s="53"/>
       <c r="W20" s="53"/>
     </row>
-    <row r="21" spans="1:23" ht="14.4" customHeight="1">
+    <row r="21" spans="1:23" ht="14.45" customHeight="1">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -9587,13 +9586,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="19" width="10" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13" customHeight="1">
+    <row r="1" spans="1:18" ht="13.05" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9613,7 +9612,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="13" customHeight="1">
+    <row r="2" spans="1:18" ht="13.05" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -9633,7 +9632,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="13" customHeight="1">
+    <row r="3" spans="1:18" ht="13.05" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -9653,7 +9652,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="13" customHeight="1">
+    <row r="4" spans="1:18" ht="13.05" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -9673,7 +9672,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="13" customHeight="1">
+    <row r="5" spans="1:18" ht="13.05" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -9693,7 +9692,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="13" customHeight="1">
+    <row r="6" spans="1:18" ht="13.05" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -9713,7 +9712,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="13" customHeight="1">
+    <row r="7" spans="1:18" ht="13.05" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -9733,7 +9732,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="13" customHeight="1">
+    <row r="8" spans="1:18" ht="13.05" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -9753,7 +9752,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="13" customHeight="1">
+    <row r="9" spans="1:18" ht="13.05" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -9773,7 +9772,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="13" customHeight="1">
+    <row r="10" spans="1:18" ht="13.05" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -9793,7 +9792,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="13" customHeight="1">
+    <row r="11" spans="1:18" ht="13.05" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -9813,7 +9812,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="13" customHeight="1">
+    <row r="12" spans="1:18" ht="13.05" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -9833,7 +9832,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="13" customHeight="1">
+    <row r="13" spans="1:18" ht="13.05" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9853,7 +9852,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="13" customHeight="1">
+    <row r="14" spans="1:18" ht="13.05" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -9873,7 +9872,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="13" customHeight="1">
+    <row r="15" spans="1:18" ht="13.05" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -9893,7 +9892,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="13" customHeight="1">
+    <row r="16" spans="1:18" ht="13.05" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9913,7 +9912,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="13" customHeight="1">
+    <row r="17" spans="1:18" ht="13.05" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -9933,7 +9932,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="13" customHeight="1">
+    <row r="18" spans="1:18" ht="13.05" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -9953,7 +9952,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="13" customHeight="1">
+    <row r="19" spans="1:18" ht="13.05" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -9973,7 +9972,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="13" customHeight="1">
+    <row r="20" spans="1:18" ht="13.05" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -9993,7 +9992,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="13" customHeight="1">
+    <row r="21" spans="1:18" ht="13.05" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -10013,7 +10012,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18" ht="13" customHeight="1">
+    <row r="22" spans="1:18" ht="13.05" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -10033,7 +10032,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="1:18" ht="13" customHeight="1">
+    <row r="23" spans="1:18" ht="13.05" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -10053,7 +10052,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="13" customHeight="1">
+    <row r="24" spans="1:18" ht="13.05" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -10073,7 +10072,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18" ht="13" customHeight="1">
+    <row r="25" spans="1:18" ht="13.05" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -10093,7 +10092,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18" ht="13" customHeight="1">
+    <row r="26" spans="1:18" ht="13.05" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -10113,7 +10112,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="13" customHeight="1">
+    <row r="27" spans="1:18" ht="13.05" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -10133,7 +10132,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18" ht="13" customHeight="1">
+    <row r="28" spans="1:18" ht="13.05" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -10153,7 +10152,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18" ht="13" customHeight="1">
+    <row r="29" spans="1:18" ht="13.05" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -10173,7 +10172,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" ht="13" customHeight="1">
+    <row r="30" spans="1:18" ht="13.05" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -10193,7 +10192,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" ht="13" customHeight="1">
+    <row r="31" spans="1:18" ht="13.05" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -10213,7 +10212,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18" ht="13" customHeight="1">
+    <row r="32" spans="1:18" ht="13.05" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -10233,7 +10232,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="1:18" ht="13" customHeight="1">
+    <row r="33" spans="1:18" ht="13.05" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -10253,7 +10252,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="1:18" ht="13" customHeight="1">
+    <row r="34" spans="1:18" ht="13.05" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -10273,7 +10272,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:18" ht="13" customHeight="1">
+    <row r="35" spans="1:18" ht="13.05" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -10293,7 +10292,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="1:18" ht="13" customHeight="1">
+    <row r="36" spans="1:18" ht="13.05" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -10313,7 +10312,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="1:18" ht="13" customHeight="1">
+    <row r="37" spans="1:18" ht="13.05" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -10333,7 +10332,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" spans="1:18" ht="13" customHeight="1">
+    <row r="38" spans="1:18" ht="13.05" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -10353,7 +10352,7 @@
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" spans="1:18" ht="13" customHeight="1">
+    <row r="39" spans="1:18" ht="13.05" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -10373,7 +10372,7 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" spans="1:18" ht="13" customHeight="1">
+    <row r="40" spans="1:18" ht="13.05" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -10393,7 +10392,7 @@
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" spans="1:18" ht="13" customHeight="1">
+    <row r="41" spans="1:18" ht="13.05" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -10413,7 +10412,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" spans="1:18" ht="13" customHeight="1">
+    <row r="42" spans="1:18" ht="13.05" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -10433,7 +10432,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="13" customHeight="1">
+    <row r="43" spans="1:18" ht="13.05" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -10453,7 +10452,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" spans="1:18" ht="13" customHeight="1">
+    <row r="44" spans="1:18" ht="13.05" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -10473,7 +10472,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" spans="1:18" ht="13" customHeight="1">
+    <row r="45" spans="1:18" ht="13.05" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -10493,7 +10492,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="1:18" ht="13" customHeight="1">
+    <row r="46" spans="1:18" ht="13.05" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -10513,7 +10512,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="1:18" ht="13" customHeight="1">
+    <row r="47" spans="1:18" ht="13.05" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -10533,7 +10532,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="1:18" ht="13" customHeight="1">
+    <row r="48" spans="1:18" ht="13.05" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -10553,7 +10552,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18" ht="13" customHeight="1">
+    <row r="49" spans="1:18" ht="13.05" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -10573,7 +10572,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="1:18" ht="13" customHeight="1">
+    <row r="50" spans="1:18" ht="13.05" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -10593,7 +10592,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" spans="1:18" ht="13" customHeight="1">
+    <row r="51" spans="1:18" ht="13.05" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -10613,7 +10612,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="1:18" ht="13" customHeight="1">
+    <row r="52" spans="1:18" ht="13.05" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -10633,7 +10632,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="1:18" ht="13" customHeight="1">
+    <row r="53" spans="1:18" ht="13.05" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -10653,7 +10652,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="1:18" ht="13" customHeight="1">
+    <row r="54" spans="1:18" ht="13.05" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -10673,7 +10672,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="1:18" ht="13" customHeight="1">
+    <row r="55" spans="1:18" ht="13.05" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -10693,7 +10692,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" spans="1:18" ht="13" customHeight="1">
+    <row r="56" spans="1:18" ht="13.05" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -10713,7 +10712,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" spans="1:18" ht="13" customHeight="1">
+    <row r="57" spans="1:18" ht="13.05" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -10733,7 +10732,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" spans="1:18" ht="13" customHeight="1">
+    <row r="58" spans="1:18" ht="13.05" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -10753,7 +10752,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
     </row>
-    <row r="59" spans="1:18" ht="13" customHeight="1">
+    <row r="59" spans="1:18" ht="13.05" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -10773,7 +10772,7 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" spans="1:18" ht="13" customHeight="1">
+    <row r="60" spans="1:18" ht="13.05" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -10793,7 +10792,7 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="1:18" ht="13" customHeight="1">
+    <row r="61" spans="1:18" ht="13.05" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -10813,7 +10812,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" spans="1:18" ht="13" customHeight="1">
+    <row r="62" spans="1:18" ht="13.05" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -10833,7 +10832,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" spans="1:18" ht="13" customHeight="1">
+    <row r="63" spans="1:18" ht="13.05" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -10853,7 +10852,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" spans="1:18" ht="13" customHeight="1">
+    <row r="64" spans="1:18" ht="13.05" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -10873,7 +10872,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="1:18" ht="13" customHeight="1">
+    <row r="65" spans="1:18" ht="13.05" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -10893,7 +10892,7 @@
       <c r="Q65" s="6"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="1:18" ht="13" customHeight="1">
+    <row r="66" spans="1:18" ht="13.05" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -10913,7 +10912,7 @@
       <c r="Q66" s="6"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="1:18" ht="13" customHeight="1">
+    <row r="67" spans="1:18" ht="13.05" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -10933,7 +10932,7 @@
       <c r="Q67" s="6"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="1:18" ht="13" customHeight="1">
+    <row r="68" spans="1:18" ht="13.05" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -10953,7 +10952,7 @@
       <c r="Q68" s="6"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="1:18" ht="13" customHeight="1">
+    <row r="69" spans="1:18" ht="13.05" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -10973,7 +10972,7 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="1:18" ht="13" customHeight="1">
+    <row r="70" spans="1:18" ht="13.05" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -10993,7 +10992,7 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" spans="1:18" ht="13" customHeight="1">
+    <row r="71" spans="1:18" ht="13.05" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -11013,7 +11012,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" spans="1:18" ht="13" customHeight="1">
+    <row r="72" spans="1:18" ht="13.05" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -11033,7 +11032,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" spans="1:18" ht="13" customHeight="1">
+    <row r="73" spans="1:18" ht="13.05" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -11053,7 +11052,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" spans="1:18" ht="13" customHeight="1">
+    <row r="74" spans="1:18" ht="13.05" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -11073,7 +11072,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="7"/>
     </row>
-    <row r="75" spans="1:18" ht="13" customHeight="1">
+    <row r="75" spans="1:18" ht="13.05" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -11093,7 +11092,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="7"/>
     </row>
-    <row r="76" spans="1:18" ht="13" customHeight="1">
+    <row r="76" spans="1:18" ht="13.05" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -11113,7 +11112,7 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="7"/>
     </row>
-    <row r="77" spans="1:18" ht="13" customHeight="1">
+    <row r="77" spans="1:18" ht="13.05" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -11133,7 +11132,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
     </row>
-    <row r="78" spans="1:18" ht="13" customHeight="1">
+    <row r="78" spans="1:18" ht="13.05" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -11153,7 +11152,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="7"/>
     </row>
-    <row r="79" spans="1:18" ht="13" customHeight="1">
+    <row r="79" spans="1:18" ht="13.05" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -11173,7 +11172,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="7"/>
     </row>
-    <row r="80" spans="1:18" ht="13" customHeight="1">
+    <row r="80" spans="1:18" ht="13.05" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -11193,7 +11192,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="7"/>
     </row>
-    <row r="81" spans="1:18" ht="13" customHeight="1">
+    <row r="81" spans="1:18" ht="13.05" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -11213,7 +11212,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="7"/>
     </row>
-    <row r="82" spans="1:18" ht="13" customHeight="1">
+    <row r="82" spans="1:18" ht="13.05" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -11233,7 +11232,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="7"/>
     </row>
-    <row r="83" spans="1:18" ht="13" customHeight="1">
+    <row r="83" spans="1:18" ht="13.05" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -11253,7 +11252,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="7"/>
     </row>
-    <row r="84" spans="1:18" ht="13" customHeight="1">
+    <row r="84" spans="1:18" ht="13.05" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -11273,7 +11272,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="7"/>
     </row>
-    <row r="85" spans="1:18" ht="13" customHeight="1">
+    <row r="85" spans="1:18" ht="13.05" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -11293,7 +11292,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="7"/>
     </row>
-    <row r="86" spans="1:18" ht="13" customHeight="1">
+    <row r="86" spans="1:18" ht="13.05" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -11313,7 +11312,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="7"/>
     </row>
-    <row r="87" spans="1:18" ht="13" customHeight="1">
+    <row r="87" spans="1:18" ht="13.05" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -11333,7 +11332,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="7"/>
     </row>
-    <row r="88" spans="1:18" ht="13" customHeight="1">
+    <row r="88" spans="1:18" ht="13.05" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -11353,7 +11352,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="7"/>
     </row>
-    <row r="89" spans="1:18" ht="13" customHeight="1">
+    <row r="89" spans="1:18" ht="13.05" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -11373,7 +11372,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="7"/>
     </row>
-    <row r="90" spans="1:18" ht="13" customHeight="1">
+    <row r="90" spans="1:18" ht="13.05" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -11393,7 +11392,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="7"/>
     </row>
-    <row r="91" spans="1:18" ht="13" customHeight="1">
+    <row r="91" spans="1:18" ht="13.05" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -11413,7 +11412,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="7"/>
     </row>
-    <row r="92" spans="1:18" ht="13" customHeight="1">
+    <row r="92" spans="1:18" ht="13.05" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -11433,7 +11432,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="7"/>
     </row>
-    <row r="93" spans="1:18" ht="13" customHeight="1">
+    <row r="93" spans="1:18" ht="13.05" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -11453,7 +11452,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="7"/>
     </row>
-    <row r="94" spans="1:18" ht="13" customHeight="1">
+    <row r="94" spans="1:18" ht="13.05" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -11473,7 +11472,7 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="7"/>
     </row>
-    <row r="95" spans="1:18" ht="13" customHeight="1">
+    <row r="95" spans="1:18" ht="13.05" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -11493,7 +11492,7 @@
       <c r="Q95" s="6"/>
       <c r="R95" s="7"/>
     </row>
-    <row r="96" spans="1:18" ht="13" customHeight="1">
+    <row r="96" spans="1:18" ht="13.05" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -11513,7 +11512,7 @@
       <c r="Q96" s="6"/>
       <c r="R96" s="7"/>
     </row>
-    <row r="97" spans="1:18" ht="13" customHeight="1">
+    <row r="97" spans="1:18" ht="13.05" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -11533,7 +11532,7 @@
       <c r="Q97" s="6"/>
       <c r="R97" s="7"/>
     </row>
-    <row r="98" spans="1:18" ht="13" customHeight="1">
+    <row r="98" spans="1:18" ht="13.05" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -11553,7 +11552,7 @@
       <c r="Q98" s="6"/>
       <c r="R98" s="7"/>
     </row>
-    <row r="99" spans="1:18" ht="13" customHeight="1">
+    <row r="99" spans="1:18" ht="13.05" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -11573,7 +11572,7 @@
       <c r="Q99" s="6"/>
       <c r="R99" s="7"/>
     </row>
-    <row r="100" spans="1:18" ht="13" customHeight="1">
+    <row r="100" spans="1:18" ht="13.05" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -11593,7 +11592,7 @@
       <c r="Q100" s="6"/>
       <c r="R100" s="7"/>
     </row>
-    <row r="101" spans="1:18" ht="13" customHeight="1">
+    <row r="101" spans="1:18" ht="13.05" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -11613,7 +11612,7 @@
       <c r="Q101" s="6"/>
       <c r="R101" s="7"/>
     </row>
-    <row r="102" spans="1:18" ht="13" customHeight="1">
+    <row r="102" spans="1:18" ht="13.05" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -11633,7 +11632,7 @@
       <c r="Q102" s="6"/>
       <c r="R102" s="7"/>
     </row>
-    <row r="103" spans="1:18" ht="13" customHeight="1">
+    <row r="103" spans="1:18" ht="13.05" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -11653,7 +11652,7 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="7"/>
     </row>
-    <row r="104" spans="1:18" ht="13" customHeight="1">
+    <row r="104" spans="1:18" ht="13.05" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -11673,7 +11672,7 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="7"/>
     </row>
-    <row r="105" spans="1:18" ht="13" customHeight="1">
+    <row r="105" spans="1:18" ht="13.05" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -11693,7 +11692,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="7"/>
     </row>
-    <row r="106" spans="1:18" ht="13" customHeight="1">
+    <row r="106" spans="1:18" ht="13.05" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -11713,7 +11712,7 @@
       <c r="Q106" s="6"/>
       <c r="R106" s="7"/>
     </row>
-    <row r="107" spans="1:18" ht="13" customHeight="1">
+    <row r="107" spans="1:18" ht="13.05" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -11733,7 +11732,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="7"/>
     </row>
-    <row r="108" spans="1:18" ht="13" customHeight="1">
+    <row r="108" spans="1:18" ht="13.05" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -11753,7 +11752,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="7"/>
     </row>
-    <row r="109" spans="1:18" ht="13" customHeight="1">
+    <row r="109" spans="1:18" ht="13.05" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -11773,7 +11772,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="7"/>
     </row>
-    <row r="110" spans="1:18" ht="13" customHeight="1">
+    <row r="110" spans="1:18" ht="13.05" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -11793,7 +11792,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="7"/>
     </row>
-    <row r="111" spans="1:18" ht="13" customHeight="1">
+    <row r="111" spans="1:18" ht="13.05" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -11813,7 +11812,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="7"/>
     </row>
-    <row r="112" spans="1:18" ht="13" customHeight="1">
+    <row r="112" spans="1:18" ht="13.05" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -11833,7 +11832,7 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="7"/>
     </row>
-    <row r="113" spans="1:18" ht="13" customHeight="1">
+    <row r="113" spans="1:18" ht="13.05" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -11853,7 +11852,7 @@
       <c r="Q113" s="6"/>
       <c r="R113" s="7"/>
     </row>
-    <row r="114" spans="1:18" ht="13" customHeight="1">
+    <row r="114" spans="1:18" ht="13.05" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -11873,7 +11872,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="7"/>
     </row>
-    <row r="115" spans="1:18" ht="13" customHeight="1">
+    <row r="115" spans="1:18" ht="13.05" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -11893,7 +11892,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="7"/>
     </row>
-    <row r="116" spans="1:18" ht="13" customHeight="1">
+    <row r="116" spans="1:18" ht="13.05" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -11913,7 +11912,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="7"/>
     </row>
-    <row r="117" spans="1:18" ht="13" customHeight="1">
+    <row r="117" spans="1:18" ht="13.05" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -11933,7 +11932,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="7"/>
     </row>
-    <row r="118" spans="1:18" ht="13" customHeight="1">
+    <row r="118" spans="1:18" ht="13.05" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -11953,7 +11952,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="7"/>
     </row>
-    <row r="119" spans="1:18" ht="13" customHeight="1">
+    <row r="119" spans="1:18" ht="13.05" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -11973,7 +11972,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="7"/>
     </row>
-    <row r="120" spans="1:18" ht="13" customHeight="1">
+    <row r="120" spans="1:18" ht="13.05" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -11993,7 +11992,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="7"/>
     </row>
-    <row r="121" spans="1:18" ht="13" customHeight="1">
+    <row r="121" spans="1:18" ht="13.05" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -12013,7 +12012,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="7"/>
     </row>
-    <row r="122" spans="1:18" ht="13" customHeight="1">
+    <row r="122" spans="1:18" ht="13.05" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -12033,7 +12032,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="7"/>
     </row>
-    <row r="123" spans="1:18" ht="13" customHeight="1">
+    <row r="123" spans="1:18" ht="13.05" customHeight="1">
       <c r="A123" s="8"/>
       <c r="B123" s="66"/>
       <c r="C123" s="66"/>
